--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid821088"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid789062"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid789062"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid164297"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid164297"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid7817"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>02/05/2024</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
 </sst>
 </file>
@@ -380,6 +383,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid7817"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid384703"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>01/07/2024</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>02/05/2024</t>
@@ -394,6 +397,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid384703"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid688396"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>XD Date</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>0.005</t>
-  </si>
-  <si>
-    <t>01/07/2024</t>
-  </si>
-  <si>
-    <t>02/05/2024</t>
   </si>
 </sst>
 </file>
@@ -386,28 +380,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid688396"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid955978"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,25 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>02/09/2024</t>
+  </si>
+  <si>
     <t>01/08/2024</t>
   </si>
   <si>
-    <t>0.005</t>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>02/05/2024</t>
   </si>
 </sst>
 </file>
@@ -380,6 +395,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid955978"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid960799"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>02/09/2024</t>
@@ -450,6 +453,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid960799"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid223439"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,16 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
     <t>04/11/2024</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>01/10/2024</t>
@@ -464,6 +470,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid223439"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid724116"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>02/01/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>29/11/2024</t>
@@ -492,6 +495,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid724116"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid822034"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>31/01/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>02/01/2025</t>
@@ -506,6 +509,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid822034"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid368750"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid368750"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid57826"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid57826"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid230933"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid230933"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid448061"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid448061"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid868946"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>03/03/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>31/01/2025</t>
@@ -520,6 +523,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid868946"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid904619"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,19 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>02/06/2025</t>
   </si>
   <si>
-    <t>0.005</t>
+    <t>02/05/2025</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
   </si>
   <si>
     <t>03/03/2025</t>
@@ -534,6 +543,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid904619"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid386454"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>01/07/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>02/06/2025</t>
@@ -576,6 +579,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid386454"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid455179"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,16 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
     <t>01/08/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>01/07/2025</t>
@@ -590,6 +596,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid455179"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid762730"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid762730"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid957750"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>01/10/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>01/09/2025</t>
@@ -618,6 +621,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid957750"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid683245"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>30/10/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>01/10/2025</t>
@@ -632,6 +635,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid683245"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid149562"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>02/01/2026</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>28/11/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>30/10/2025</t>
@@ -646,6 +649,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
